--- a/InputData/elec/SYC/Start Year Capacities.xlsx
+++ b/InputData/elec/SYC/Start Year Capacities.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Desktop\eps-1.2.0-rc1_Poland\InputData\elec\SYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgutowski\Desktop\EPS do uzupełnienia\Poland Input Data Needing Update - notatka\elec\SYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7884"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="SYC-SYEGC" sheetId="4" r:id="rId3"/>
     <sheet name="SYC-FoPtPFP" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Source:</t>
   </si>
@@ -114,18 +114,32 @@
   </si>
   <si>
     <t>Table 1.1</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,15 +198,15 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -200,24 +214,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -249,7 +265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -287,7 +309,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -582,22 +610,22 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.7265625" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,57 +633,57 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -671,21 +699,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="9"/>
+    <col min="3" max="3" width="25.44140625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
@@ -696,13 +722,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9">
-        <f>19348+9290</f>
-        <v>28638</v>
+        <f>19348</f>
+        <v>19348</v>
       </c>
       <c r="C2" s="9">
         <v>0</v>
@@ -711,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -725,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -739,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -753,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -767,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -781,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -795,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
@@ -809,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -823,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
@@ -837,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -848,6 +874,35 @@
         <v>0</v>
       </c>
       <c r="D12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9">
+        <f>9290</f>
+        <v>9290</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
         <v>0</v>
       </c>
     </row>
@@ -862,20 +917,18 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -886,13 +939,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7">
         <f>Data!B2</f>
-        <v>28638</v>
+        <v>19348</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -901,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -916,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -931,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -946,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -961,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -976,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -991,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1036,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1048,6 +1101,35 @@
         <v>0</v>
       </c>
       <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <f>Data!B13</f>
+        <v>9290</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
@@ -1063,25 +1145,23 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1090,43 +1170,43 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="D12" s="6"/>
     </row>
